--- a/tests/artifact/script/ColumnSorting.xlsx
+++ b/tests/artifact/script/ColumnSorting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6500" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowHeight="11900" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2386,10 +2386,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -2933,16 +2933,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6287,7 +6287,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5"/>
